--- a/Excel/Performance.xlsx
+++ b/Excel/Performance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>accountAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>param</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>震动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,6 +117,80 @@
   </si>
   <si>
     <t>shake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Standard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_dragon_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_dragon_skill</t>
+  </si>
+  <si>
+    <t>Villager_B_Boy_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gridSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,24 +563,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -525,28 +593,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,31 +628,37 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -589,62 +669,144 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/Performance.xlsx
+++ b/Excel/Performance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,77 +120,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Standard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_dragon_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_dragon_skill</t>
+  </si>
+  <si>
     <t>Villager_B_Boy_atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Standard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accounts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>micro_dragon_atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>micro_dragon_skill</t>
+    <t>Villager_B_Boy_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gridSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>Single</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Villager_B_Boy_atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Villager_B_Boy_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Villager_B_Boy_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gridSelect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格子选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current</t>
+    <t>Villager_B_Boy_atk1,Villager_B_Boy_atk2,Villager_B_Boy_atk3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -576,13 +599,14 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="61.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -593,25 +617,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -619,8 +643,11 @@
       <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,25 +658,25 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>0</v>
@@ -657,8 +684,11 @@
       <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -669,25 +699,25 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>12</v>
@@ -695,8 +725,11 @@
       <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -704,27 +737,30 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
         <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -732,81 +768,90 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
         <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
         <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
         <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/Performance.xlsx
+++ b/Excel/Performance.xlsx
@@ -13,8 +13,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Single 一个动作一次结算
+Multi 一个动作多次结算</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,21 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>accounts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>micro_dragon_atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>micro_dragon_skill</t>
-  </si>
-  <si>
     <t>Villager_B_Boy_atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Villager_B_Boy_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Villager_B_Boy_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>accountType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,18 +216,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Single</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Multi</t>
-  </si>
-  <si>
-    <t>Single</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Villager_B_Boy_atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Villager_B_Boy_atk1,Villager_B_Boy_atk2,Villager_B_Boy_atk3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +288,21 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -585,11 +647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,15 +660,14 @@
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="61.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -617,13 +678,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -635,7 +696,7 @@
         <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -643,11 +704,8 @@
       <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -684,11 +742,8 @@
       <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -699,10 +754,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -717,7 +772,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>12</v>
@@ -725,11 +780,8 @@
       <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -740,10 +792,10 @@
         <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -756,11 +808,8 @@
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -771,10 +820,10 @@
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -787,13 +836,10 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -802,13 +848,13 @@
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -818,28 +864,25 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -849,13 +892,67 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
-        <v>35</v>
-      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/Performance.xlsx
+++ b/Excel/Performance.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,38 @@
   </si>
   <si>
     <t>技能3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost_atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -783,22 +815,22 @@
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -811,22 +843,22 @@
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -839,22 +871,22 @@
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -867,16 +899,16 @@
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>41</v>
@@ -895,22 +927,22 @@
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -923,22 +955,22 @@
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -948,6 +980,118 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/Performance.xlsx
+++ b/Excel/Performance.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,10 +169,6 @@
   </si>
   <si>
     <t>Villager_B_Boy_atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Villager_B_Boy_skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -683,7 +679,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -710,13 +706,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -728,7 +724,7 @@
         <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -748,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -786,10 +782,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -804,7 +800,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>12</v>
@@ -824,13 +820,13 @@
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -843,22 +839,22 @@
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -871,22 +867,22 @@
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -899,22 +895,22 @@
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -936,10 +932,10 @@
         <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>23</v>
@@ -964,10 +960,10 @@
         <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>24</v>
@@ -983,7 +979,7 @@
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -992,13 +988,13 @@
         <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1011,7 +1007,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -1020,13 +1016,13 @@
         <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1039,7 +1035,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -1048,13 +1044,13 @@
         <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1067,7 +1063,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
@@ -1076,13 +1072,13 @@
         <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>

--- a/Excel/Performance.xlsx
+++ b/Excel/Performance.xlsx
@@ -679,7 +679,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H4" sqref="H4:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -829,7 +829,9 @@
         <v>41</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
         <v>1</v>
@@ -857,7 +859,9 @@
         <v>42</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
         <v>1</v>
@@ -885,7 +889,9 @@
         <v>43</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
         <v>1</v>
@@ -913,7 +919,9 @@
         <v>44</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
         <v>1</v>
@@ -941,7 +949,9 @@
         <v>23</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
         <v>1</v>
@@ -969,7 +979,9 @@
         <v>24</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
         <v>1</v>
@@ -997,7 +1009,9 @@
         <v>52</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
         <v>1</v>
@@ -1025,7 +1039,9 @@
         <v>53</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
         <v>1</v>
@@ -1053,7 +1069,9 @@
         <v>57</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
         <v>1</v>
@@ -1081,7 +1099,9 @@
         <v>58</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1">
         <v>1</v>
